--- a/BalanceSheet/WORK_bal.xlsx
+++ b/BalanceSheet/WORK_bal.xlsx
@@ -710,19 +710,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-6990000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>7617000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-292000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-3746000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5721000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>11159000.0</v>
